--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,12 +739,84 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
       </c>
       <c r="R5" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44832</v>
+        <v>44841</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
         <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,12 +811,84 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
       </c>
       <c r="R6" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44846</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44841</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44832</v>
+        <v>44841</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
         <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,12 +883,84 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
       </c>
       <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>60</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>13</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44797</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44804</v>
+        <v>44846</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44810</v>
+        <v>44804</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44846</v>
+        <v>44797</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44841</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44841</v>
+        <v>44810</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44804</v>
+        <v>44859</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
         <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44797</v>
+        <v>44804</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44841</v>
+        <v>44797</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44810</v>
+        <v>44841</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,84 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>60</v>
+      </c>
+      <c r="K9" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44810</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>60</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44810</v>
+        <v>44874</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,12 +1099,84 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44810</v>
+        <v>44874</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,12 +1171,84 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>60</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44846</v>
+        <v>44832</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
         <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44859</v>
+        <v>44841</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44804</v>
+        <v>44846</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44797</v>
+        <v>44880</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44841</v>
+        <v>44804</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44880</v>
+        <v>44797</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44810</v>
+        <v>44874</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44804</v>
+        <v>44880</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44859</v>
+        <v>44804</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44797</v>
+        <v>44859</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44810</v>
+        <v>44874</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,84 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>40</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44804</v>
+        <v>44895</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44859</v>
+        <v>44804</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44859</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44868</v>
+        <v>44797</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44810</v>
+        <v>44874</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>40</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44841</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44832</v>
+        <v>44880</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44841</v>
+        <v>44810</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44846</v>
+        <v>44797</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44894</v>
+        <v>44804</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44895</v>
+        <v>44859</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44804</v>
+        <v>44874</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44859</v>
+        <v>44895</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44797</v>
+        <v>44832</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44868</v>
+        <v>44894</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44874</v>
+        <v>44839</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44810</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44841</v>
+        <v>44810</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44810</v>
+        <v>44859</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
         <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44797</v>
+        <v>44841</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44804</v>
+        <v>44874</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44846</v>
+        <v>44804</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44859</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44832</v>
+        <v>44797</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44832</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
         <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44915</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>18000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44880</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44797</v>
+        <v>44894</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44895</v>
+        <v>44797</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44839</v>
+        <v>44895</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,84 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>60</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44810</v>
+        <v>44922</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44846</v>
+        <v>44810</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44859</v>
+        <v>44846</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44874</v>
+        <v>44841</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44804</v>
+        <v>44874</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44915</v>
+        <v>44804</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44868</v>
+        <v>44915</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
         <v>18000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44880</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44894</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44895</v>
+        <v>44797</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44839</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,12 +1459,84 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>60</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>13</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44915</v>
+        <v>44930</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44915</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
         <v>18000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44880</v>
+        <v>44868</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44797</v>
+        <v>44894</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44895</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44839</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,12 +1531,84 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44810</v>
+        <v>44841</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44846</v>
+        <v>44930</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44841</v>
+        <v>44804</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44874</v>
+        <v>44832</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44804</v>
+        <v>44880</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44930</v>
+        <v>44846</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44868</v>
+        <v>44874</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44880</v>
+        <v>44797</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44894</v>
+        <v>44922</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44797</v>
+        <v>44839</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44894</v>
+        <v>44922</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44841</v>
+        <v>44810</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44930</v>
+        <v>44846</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44804</v>
+        <v>44841</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44832</v>
+        <v>44874</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44880</v>
+        <v>44804</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44846</v>
+        <v>44930</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44880</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44839</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44943</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44895</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44810</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,12 +1603,84 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>40</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>13</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44841</v>
+        <v>44880</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44859</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1192</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44804</v>
+        <v>44797</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>12000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44832</v>
+        <v>44943</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44880</v>
+        <v>44859</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44915</v>
+        <v>44874</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44922</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44839</v>
+        <v>44804</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44943</v>
+        <v>44894</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44895</v>
+        <v>44846</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
         <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>1462</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44930</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1192</v>
+        <v>1308</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44797</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44943</v>
+        <v>44797</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44859</v>
+        <v>44943</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>1308</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44874</v>
+        <v>44841</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44868</v>
+        <v>44874</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44922</v>
+        <v>44868</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44915</v>
+        <v>44922</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44804</v>
+        <v>44915</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44894</v>
+        <v>44804</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44846</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44846</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
         <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,12 +1675,84 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>40</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44922</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44880</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44959</v>
+        <v>44846</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44930</v>
+        <v>44895</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44943</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1192</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44797</v>
+        <v>44959</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1462</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44943</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44859</v>
+        <v>44880</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44841</v>
+        <v>44804</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44874</v>
+        <v>44810</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44868</v>
+        <v>44841</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44922</v>
+        <v>44930</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44915</v>
+        <v>44832</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
         <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44804</v>
+        <v>44915</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44894</v>
+        <v>44859</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44846</v>
+        <v>44894</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44832</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
         <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44810</v>
+        <v>44797</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
         <v>12000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44846</v>
+        <v>44943</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44895</v>
+        <v>44841</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44943</v>
+        <v>44930</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44959</v>
+        <v>44810</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1462</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44804</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44880</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44804</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
         <v>12000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44810</v>
+        <v>44894</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44841</v>
+        <v>44959</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44930</v>
+        <v>44922</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44915</v>
+        <v>44880</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44859</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1192</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44894</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44846</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44797</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
         <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44915</v>
+        <v>44846</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
         <v>18000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44810</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44841</v>
+        <v>44895</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44930</v>
+        <v>44894</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44810</v>
+        <v>44880</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44804</v>
+        <v>44930</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>44959</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44841</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44894</v>
+        <v>44943</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44959</v>
+        <v>44922</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1462</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44922</v>
+        <v>44832</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44832</v>
+        <v>44859</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1346</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44880</v>
+        <v>44797</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44839</v>
+        <v>44804</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44846</v>
+        <v>44874</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44839</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>1192</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44846</v>
+        <v>44930</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44810</v>
+        <v>44859</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
         <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>44894</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>18000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44895</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44880</v>
+        <v>44797</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44930</v>
+        <v>44810</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44841</v>
+        <v>44832</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
         <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44943</v>
+        <v>44895</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44922</v>
+        <v>44846</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44832</v>
+        <v>44880</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44859</v>
+        <v>44804</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
         <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44797</v>
+        <v>44922</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44804</v>
+        <v>44874</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44915</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
         <v>18000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44874</v>
+        <v>44839</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44930</v>
+        <v>44841</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44859</v>
+        <v>44915</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44894</v>
+        <v>44868</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44943</v>
+        <v>44797</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44841</v>
+        <v>44959</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44797</v>
+        <v>44930</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44810</v>
+        <v>44922</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44959</v>
+        <v>44846</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44895</v>
+        <v>44943</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44846</v>
+        <v>44810</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44880</v>
+        <v>44859</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44804</v>
+        <v>44880</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44922</v>
+        <v>44804</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44915</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44839</v>
+        <v>44832</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1192</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44868</v>
+        <v>44895</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44841</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44915</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>18000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44868</v>
+        <v>44930</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44797</v>
+        <v>44804</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44959</v>
+        <v>44797</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1462</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44930</v>
+        <v>44841</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44922</v>
+        <v>44943</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44839</v>
+        <v>44895</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44859</v>
+        <v>44959</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1462</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44880</v>
+        <v>44874</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44804</v>
+        <v>44832</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
         <v>18000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44832</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
         <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44895</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44959</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1192</v>
+        <v>1462</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44930</v>
+        <v>44832</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44804</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44797</v>
+        <v>44915</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44943</v>
+        <v>44839</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44846</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44895</v>
+        <v>44804</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44922</v>
+        <v>44797</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44959</v>
+        <v>44880</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1462</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44874</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44832</v>
+        <v>44930</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44915</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
         <v>18000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44880</v>
+        <v>44841</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44894</v>
+        <v>44922</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44846</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44959</v>
+        <v>44894</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44846</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44832</v>
+        <v>44804</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44943</v>
+        <v>44810</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44915</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44859</v>
+        <v>44841</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44839</v>
+        <v>44797</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44868</v>
+        <v>44930</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44804</v>
+        <v>44859</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44797</v>
+        <v>44895</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44810</v>
+        <v>44868</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44880</v>
+        <v>44915</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44895</v>
+        <v>44943</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44930</v>
+        <v>44874</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44894</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
         <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44841</v>
+        <v>44922</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44922</v>
+        <v>44959</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1462</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44846</v>
+        <v>44880</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44894</v>
+        <v>44959</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44846</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44804</v>
+        <v>44832</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44810</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44915</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44797</v>
+        <v>44839</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44930</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44859</v>
+        <v>44804</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44895</v>
+        <v>44797</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44868</v>
+        <v>44810</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44915</v>
+        <v>44880</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44943</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44874</v>
+        <v>44930</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
         <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44922</v>
+        <v>44841</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44959</v>
+        <v>44922</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1462</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44894</v>
+        <v>44868</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44804</v>
+        <v>44922</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44810</v>
+        <v>44859</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
         <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44894</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44841</v>
+        <v>44895</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44930</v>
+        <v>44943</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44859</v>
+        <v>44804</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44895</v>
+        <v>44874</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44868</v>
+        <v>44880</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44915</v>
+        <v>44832</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44943</v>
+        <v>44846</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44874</v>
+        <v>44810</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44880</v>
+        <v>44930</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44868</v>
+        <v>44943</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44841</v>
+        <v>44922</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44922</v>
+        <v>44804</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44859</v>
+        <v>44895</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44894</v>
+        <v>44797</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44895</v>
+        <v>44930</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44797</v>
+        <v>44841</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44943</v>
+        <v>44839</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44804</v>
+        <v>44832</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44832</v>
+        <v>44894</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44846</v>
+        <v>44915</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>18000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44810</v>
+        <v>44959</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>1462</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44915</v>
+        <v>44810</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44959</v>
+        <v>44846</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44930</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1308</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44943</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44922</v>
+        <v>44810</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44804</v>
+        <v>44943</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44895</v>
+        <v>44804</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44797</v>
+        <v>44959</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1462</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44930</v>
+        <v>44915</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44841</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44839</v>
+        <v>44832</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1192</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44832</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44880</v>
+        <v>44930</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44894</v>
+        <v>44846</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44915</v>
+        <v>44880</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44959</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44810</v>
+        <v>44841</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44846</v>
+        <v>44922</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44810</v>
+        <v>44797</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44804</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44959</v>
+        <v>44880</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1462</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44915</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44804</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44832</v>
+        <v>44922</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44810</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
         <v>12000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1308</v>
+        <v>1462</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44846</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44880</v>
+        <v>44930</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44859</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44841</v>
+        <v>44894</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44922</v>
+        <v>44832</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44846</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44797</v>
+        <v>44810</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>44943</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44804</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44880</v>
+        <v>44959</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>1462</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44915</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44804</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44922</v>
+        <v>44832</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44810</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
         <v>12000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44959</v>
+        <v>44930</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1462</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44846</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44930</v>
+        <v>44880</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44841</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44832</v>
+        <v>44922</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44846</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44859</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44797</v>
+        <v>44943</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>45155</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44880</v>
+        <v>44804</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44846</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44804</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44922</v>
+        <v>44832</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44810</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44874</v>
+        <v>44841</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44959</v>
+        <v>44797</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1462</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44930</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44930</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44841</v>
+        <v>44915</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
         <v>18000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44894</v>
+        <v>44959</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44832</v>
+        <v>44922</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44846</v>
+        <v>44810</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,12 +1747,84 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>30</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1308</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44859</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44943</v>
+        <v>44797</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45155</v>
+        <v>44915</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1538</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44804</v>
+        <v>44880</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44846</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44804</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44832</v>
+        <v>44922</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44810</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44841</v>
+        <v>44874</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44959</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1462</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44930</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44930</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44859</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44915</v>
+        <v>44841</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
         <v>18000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44959</v>
+        <v>45155</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1462</v>
+        <v>1538</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44859</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44797</v>
+        <v>44943</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>45155</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44880</v>
+        <v>44804</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44846</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44804</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44922</v>
+        <v>44832</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44810</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44874</v>
+        <v>44841</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44959</v>
+        <v>44797</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1462</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44930</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44930</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44841</v>
+        <v>44915</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
         <v>18000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45155</v>
+        <v>44959</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M17" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1538</v>
+        <v>1462</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44894</v>
+        <v>44922</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44846</v>
+        <v>44880</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44859</v>
+        <v>44832</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1000</v>
+        <v>1346</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44943</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45155</v>
+        <v>44959</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M4" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1538</v>
+        <v>1462</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44804</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1538</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44846</v>
+        <v>44930</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44832</v>
+        <v>44859</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
         <v>18000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44841</v>
+        <v>44880</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44810</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>12000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44930</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44943</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44915</v>
+        <v>44804</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44959</v>
+        <v>44841</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44922</v>
+        <v>44846</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44810</v>
+        <v>44922</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44880</v>
+        <v>44895</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44959</v>
+        <v>44915</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44797</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>44874</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1538</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44894</v>
+        <v>44959</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44859</v>
+        <v>44804</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44915</v>
+        <v>44846</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
         <v>18000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44810</v>
+        <v>44943</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44895</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44797</v>
+        <v>44810</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
         <v>12000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44943</v>
+        <v>45155</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1308</v>
+        <v>1538</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44804</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44841</v>
+        <v>44922</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44922</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1308</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44895</v>
+        <v>44832</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
         <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44832</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1192</v>
+        <v>1346</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44959</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44915</v>
+        <v>44894</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>18000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44797</v>
+        <v>44922</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44874</v>
+        <v>44804</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44930</v>
+        <v>44810</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44959</v>
+        <v>45155</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1462</v>
+        <v>1538</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44804</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44880</v>
+        <v>44943</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44943</v>
+        <v>44930</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44895</v>
+        <v>44839</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44810</v>
+        <v>44846</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45155</v>
+        <v>44915</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1538</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44922</v>
+        <v>44797</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44841</v>
+        <v>44874</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44832</v>
+        <v>44868</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
         <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1346</v>
+        <v>1385</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44832</v>
+        <v>44880</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44959</v>
+        <v>44859</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1462</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44894</v>
+        <v>44804</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44804</v>
+        <v>44894</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44810</v>
+        <v>44841</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45155</v>
+        <v>44839</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1538</v>
+        <v>1192</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>45155</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44841</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44943</v>
+        <v>44832</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
         <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44930</v>
+        <v>44810</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44839</v>
+        <v>44797</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44846</v>
+        <v>44922</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44915</v>
+        <v>44930</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44880</v>
+        <v>44943</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44797</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44874</v>
+        <v>44895</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44846</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44868</v>
+        <v>44959</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44880</v>
+        <v>44922</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44804</v>
+        <v>45155</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1538</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44841</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44839</v>
+        <v>44895</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45155</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1538</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44930</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44832</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44810</v>
+        <v>44846</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44797</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44922</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44930</v>
+        <v>44841</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44943</v>
+        <v>44880</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44810</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44895</v>
+        <v>44832</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
         <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44846</v>
+        <v>44915</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
         <v>18000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44959</v>
+        <v>44804</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1462</v>
+        <v>962</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44922</v>
+        <v>44868</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44930</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45155</v>
+        <v>44841</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1538</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44959</v>
+        <v>44846</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44894</v>
+        <v>44922</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44810</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44895</v>
+        <v>44959</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44868</v>
+        <v>44804</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44930</v>
+        <v>44874</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44859</v>
+        <v>44797</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
         <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44846</v>
+        <v>44839</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>1192</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44797</v>
+        <v>44859</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
         <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44841</v>
+        <v>45155</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44880</v>
+        <v>44943</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44832</v>
+        <v>44880</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44915</v>
+        <v>44894</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
         <v>18000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44804</v>
+        <v>44895</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44868</v>
+        <v>44922</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44930</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44841</v>
+        <v>45155</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44846</v>
+        <v>44959</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44810</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44959</v>
+        <v>44895</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44804</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44874</v>
+        <v>44930</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44797</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
         <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44839</v>
+        <v>44846</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44915</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44859</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
         <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45155</v>
+        <v>44841</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1538</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44943</v>
+        <v>44880</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44810</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44880</v>
+        <v>44832</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
         <v>18000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44895</v>
+        <v>44804</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44868</v>
+        <v>44915</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>18000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44930</v>
+        <v>44832</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44841</v>
+        <v>44930</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44846</v>
+        <v>45155</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44922</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44810</v>
+        <v>44868</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44797</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
         <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44839</v>
+        <v>44841</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1192</v>
+        <v>1385</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44915</v>
+        <v>44894</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
         <v>18000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1308</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45155</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1538</v>
+        <v>1385</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44943</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
         <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44894</v>
+        <v>44797</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44895</v>
+        <v>44810</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1385</v>
+        <v>962</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1385</v>
+        <v>1462</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44832</v>
+        <v>44943</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44930</v>
+        <v>44895</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45155</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1538</v>
+        <v>1308</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44804</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1192</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44868</v>
+        <v>44930</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44959</v>
+        <v>44797</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1462</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44804</v>
+        <v>44841</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1385</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44859</v>
+        <v>44880</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1385</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44894</v>
+        <v>45273</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1385</v>
+        <v>1538</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44922</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1385</v>
+        <v>1308</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44943</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
         <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1308</v>
+        <v>1346</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44846</v>
+        <v>44915</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
         <v>18000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44797</v>
+        <v>44810</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
         <v>12000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44810</v>
+        <v>44839</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,12 +1819,84 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>30</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1538</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>13</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
